--- a/Part 2 Syncronization/1_PSS SSS Occupancy/FR1_RE_Count.xlsx
+++ b/Part 2 Syncronization/1_PSS SSS Occupancy/FR1_RE_Count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e866b2b393b88c91/Code/99 - Project/5G-NR-Planning-And-Dimensioning/Part 2 Syncronization/1_PSS SSS Occupancy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_FFC65FC0FEA12BED90160BE413FE3C6364DED51C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FC1D6AE4-B707-40E1-B726-F4C86749023C}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_FFC65FC0FEA12BED90160BE413FE3C6364DED51C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4A48EDBC-14C6-451D-A5DA-DD0170D6AA52}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>FR</t>
   </si>
@@ -46,19 +46,10 @@
     <t>Normal CP Symbol/Frame</t>
   </si>
   <si>
-    <t>Extended CP Symbol/Frame</t>
-  </si>
-  <si>
     <t>Normal CP RE/Frame/RB</t>
   </si>
   <si>
-    <t>Extended CP RE/Frame/RB</t>
-  </si>
-  <si>
     <t>Normal CP RE/Frame</t>
-  </si>
-  <si>
-    <t>Extended CP RE/Frame</t>
   </si>
   <si>
     <t>No</t>
@@ -553,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,16 +560,13 @@
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -610,22 +598,13 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>15</v>
@@ -637,7 +616,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -649,27 +628,18 @@
         <v>140</v>
       </c>
       <c r="J2">
-        <v>120</v>
+        <v>1680</v>
       </c>
       <c r="K2">
-        <v>1680</v>
-      </c>
-      <c r="L2">
-        <v>1440</v>
-      </c>
-      <c r="M2">
         <v>42000</v>
       </c>
-      <c r="N2">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>15</v>
@@ -681,7 +651,7 @@
         <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -693,27 +663,18 @@
         <v>140</v>
       </c>
       <c r="J3">
-        <v>120</v>
+        <v>1680</v>
       </c>
       <c r="K3">
-        <v>1680</v>
-      </c>
-      <c r="L3">
-        <v>1440</v>
-      </c>
-      <c r="M3">
         <v>87360</v>
       </c>
-      <c r="N3">
-        <v>74880</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -725,7 +686,7 @@
         <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -737,27 +698,18 @@
         <v>140</v>
       </c>
       <c r="J4">
-        <v>120</v>
+        <v>1680</v>
       </c>
       <c r="K4">
-        <v>1680</v>
-      </c>
-      <c r="L4">
-        <v>1440</v>
-      </c>
-      <c r="M4">
         <v>132720</v>
       </c>
-      <c r="N4">
-        <v>113760</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -769,7 +721,7 @@
         <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -781,27 +733,18 @@
         <v>140</v>
       </c>
       <c r="J5">
-        <v>120</v>
+        <v>1680</v>
       </c>
       <c r="K5">
-        <v>1680</v>
-      </c>
-      <c r="L5">
-        <v>1440</v>
-      </c>
-      <c r="M5">
         <v>178080</v>
       </c>
-      <c r="N5">
-        <v>152640</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -813,7 +756,7 @@
         <v>133</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -825,27 +768,18 @@
         <v>140</v>
       </c>
       <c r="J6">
-        <v>120</v>
+        <v>1680</v>
       </c>
       <c r="K6">
-        <v>1680</v>
-      </c>
-      <c r="L6">
-        <v>1440</v>
-      </c>
-      <c r="M6">
         <v>223440</v>
       </c>
-      <c r="N6">
-        <v>191520</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -857,7 +791,7 @@
         <v>160</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -869,27 +803,18 @@
         <v>140</v>
       </c>
       <c r="J7">
-        <v>120</v>
+        <v>1680</v>
       </c>
       <c r="K7">
-        <v>1680</v>
-      </c>
-      <c r="L7">
-        <v>1440</v>
-      </c>
-      <c r="M7">
         <v>268800</v>
       </c>
-      <c r="N7">
-        <v>230400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -901,7 +826,7 @@
         <v>216</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -913,27 +838,18 @@
         <v>140</v>
       </c>
       <c r="J8">
-        <v>120</v>
+        <v>1680</v>
       </c>
       <c r="K8">
-        <v>1680</v>
-      </c>
-      <c r="L8">
-        <v>1440</v>
-      </c>
-      <c r="M8">
         <v>362880</v>
       </c>
-      <c r="N8">
-        <v>311040</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -945,7 +861,7 @@
         <v>270</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -957,27 +873,18 @@
         <v>140</v>
       </c>
       <c r="J9">
-        <v>120</v>
+        <v>1680</v>
       </c>
       <c r="K9">
-        <v>1680</v>
-      </c>
-      <c r="L9">
-        <v>1440</v>
-      </c>
-      <c r="M9">
         <v>453600</v>
       </c>
-      <c r="N9">
-        <v>388800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>30</v>
@@ -989,7 +896,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1001,27 +908,18 @@
         <v>280</v>
       </c>
       <c r="J10">
-        <v>240</v>
+        <v>3360</v>
       </c>
       <c r="K10">
-        <v>3360</v>
-      </c>
-      <c r="L10">
-        <v>2880</v>
-      </c>
-      <c r="M10">
         <v>36960</v>
       </c>
-      <c r="N10">
-        <v>31680</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -1033,7 +931,7 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1045,27 +943,18 @@
         <v>280</v>
       </c>
       <c r="J11">
-        <v>240</v>
+        <v>3360</v>
       </c>
       <c r="K11">
-        <v>3360</v>
-      </c>
-      <c r="L11">
-        <v>2880</v>
-      </c>
-      <c r="M11">
         <v>80640</v>
       </c>
-      <c r="N11">
-        <v>69120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>30</v>
@@ -1077,7 +966,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1089,27 +978,18 @@
         <v>280</v>
       </c>
       <c r="J12">
-        <v>240</v>
+        <v>3360</v>
       </c>
       <c r="K12">
-        <v>3360</v>
-      </c>
-      <c r="L12">
-        <v>2880</v>
-      </c>
-      <c r="M12">
         <v>127680</v>
       </c>
-      <c r="N12">
-        <v>109440</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>30</v>
@@ -1121,7 +1001,7 @@
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1133,27 +1013,18 @@
         <v>280</v>
       </c>
       <c r="J13">
-        <v>240</v>
+        <v>3360</v>
       </c>
       <c r="K13">
-        <v>3360</v>
-      </c>
-      <c r="L13">
-        <v>2880</v>
-      </c>
-      <c r="M13">
         <v>171360</v>
       </c>
-      <c r="N13">
-        <v>146880</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -1165,7 +1036,7 @@
         <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1177,27 +1048,18 @@
         <v>280</v>
       </c>
       <c r="J14">
-        <v>240</v>
+        <v>3360</v>
       </c>
       <c r="K14">
-        <v>3360</v>
-      </c>
-      <c r="L14">
-        <v>2880</v>
-      </c>
-      <c r="M14">
         <v>218400</v>
       </c>
-      <c r="N14">
-        <v>187200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>30</v>
@@ -1209,7 +1071,7 @@
         <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1221,27 +1083,18 @@
         <v>280</v>
       </c>
       <c r="J15">
-        <v>240</v>
+        <v>3360</v>
       </c>
       <c r="K15">
-        <v>3360</v>
-      </c>
-      <c r="L15">
-        <v>2880</v>
-      </c>
-      <c r="M15">
         <v>262080</v>
       </c>
-      <c r="N15">
-        <v>224640</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -1253,7 +1106,7 @@
         <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1265,27 +1118,18 @@
         <v>280</v>
       </c>
       <c r="J16">
-        <v>240</v>
+        <v>3360</v>
       </c>
       <c r="K16">
-        <v>3360</v>
-      </c>
-      <c r="L16">
-        <v>2880</v>
-      </c>
-      <c r="M16">
         <v>356160</v>
       </c>
-      <c r="N16">
-        <v>305280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -1297,7 +1141,7 @@
         <v>133</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1309,27 +1153,18 @@
         <v>280</v>
       </c>
       <c r="J17">
-        <v>240</v>
+        <v>3360</v>
       </c>
       <c r="K17">
-        <v>3360</v>
-      </c>
-      <c r="L17">
-        <v>2880</v>
-      </c>
-      <c r="M17">
         <v>446880</v>
       </c>
-      <c r="N17">
-        <v>383040</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>30</v>
@@ -1341,7 +1176,7 @@
         <v>162</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1353,27 +1188,18 @@
         <v>280</v>
       </c>
       <c r="J18">
-        <v>240</v>
+        <v>3360</v>
       </c>
       <c r="K18">
-        <v>3360</v>
-      </c>
-      <c r="L18">
-        <v>2880</v>
-      </c>
-      <c r="M18">
         <v>544320</v>
       </c>
-      <c r="N18">
-        <v>466560</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>30</v>
@@ -1385,7 +1211,7 @@
         <v>217</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1397,27 +1223,18 @@
         <v>280</v>
       </c>
       <c r="J19">
-        <v>240</v>
+        <v>3360</v>
       </c>
       <c r="K19">
-        <v>3360</v>
-      </c>
-      <c r="L19">
-        <v>2880</v>
-      </c>
-      <c r="M19">
         <v>729120</v>
       </c>
-      <c r="N19">
-        <v>624960</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>30</v>
@@ -1429,7 +1246,7 @@
         <v>273</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1441,27 +1258,18 @@
         <v>280</v>
       </c>
       <c r="J20">
-        <v>240</v>
+        <v>3360</v>
       </c>
       <c r="K20">
-        <v>3360</v>
-      </c>
-      <c r="L20">
-        <v>2880</v>
-      </c>
-      <c r="M20">
         <v>917280</v>
       </c>
-      <c r="N20">
-        <v>786240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>60</v>
@@ -1473,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -1485,27 +1293,18 @@
         <v>560</v>
       </c>
       <c r="J21">
-        <v>480</v>
+        <v>6720</v>
       </c>
       <c r="K21">
-        <v>6720</v>
-      </c>
-      <c r="L21">
-        <v>5760</v>
-      </c>
-      <c r="M21">
         <v>73920</v>
       </c>
-      <c r="N21">
-        <v>63360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>60</v>
@@ -1517,7 +1316,7 @@
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -1529,27 +1328,18 @@
         <v>560</v>
       </c>
       <c r="J22">
-        <v>480</v>
+        <v>6720</v>
       </c>
       <c r="K22">
-        <v>6720</v>
-      </c>
-      <c r="L22">
-        <v>5760</v>
-      </c>
-      <c r="M22">
         <v>120960</v>
       </c>
-      <c r="N22">
-        <v>103680</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>60</v>
@@ -1561,7 +1351,7 @@
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -1573,27 +1363,18 @@
         <v>560</v>
       </c>
       <c r="J23">
-        <v>480</v>
+        <v>6720</v>
       </c>
       <c r="K23">
-        <v>6720</v>
-      </c>
-      <c r="L23">
-        <v>5760</v>
-      </c>
-      <c r="M23">
         <v>161280</v>
       </c>
-      <c r="N23">
-        <v>138240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>60</v>
@@ -1605,7 +1386,7 @@
         <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -1617,27 +1398,18 @@
         <v>560</v>
       </c>
       <c r="J24">
-        <v>480</v>
+        <v>6720</v>
       </c>
       <c r="K24">
-        <v>6720</v>
-      </c>
-      <c r="L24">
-        <v>5760</v>
-      </c>
-      <c r="M24">
         <v>208320</v>
       </c>
-      <c r="N24">
-        <v>178560</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>60</v>
@@ -1649,7 +1421,7 @@
         <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>4</v>
@@ -1661,27 +1433,18 @@
         <v>560</v>
       </c>
       <c r="J25">
-        <v>480</v>
+        <v>6720</v>
       </c>
       <c r="K25">
-        <v>6720</v>
-      </c>
-      <c r="L25">
-        <v>5760</v>
-      </c>
-      <c r="M25">
         <v>255360</v>
       </c>
-      <c r="N25">
-        <v>218880</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>60</v>
@@ -1693,7 +1456,7 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -1705,27 +1468,18 @@
         <v>560</v>
       </c>
       <c r="J26">
-        <v>480</v>
+        <v>6720</v>
       </c>
       <c r="K26">
-        <v>6720</v>
-      </c>
-      <c r="L26">
-        <v>5760</v>
-      </c>
-      <c r="M26">
         <v>342720</v>
       </c>
-      <c r="N26">
-        <v>293760</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>60</v>
@@ -1737,7 +1491,7 @@
         <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -1749,27 +1503,18 @@
         <v>560</v>
       </c>
       <c r="J27">
-        <v>480</v>
+        <v>6720</v>
       </c>
       <c r="K27">
-        <v>6720</v>
-      </c>
-      <c r="L27">
-        <v>5760</v>
-      </c>
-      <c r="M27">
         <v>436800</v>
       </c>
-      <c r="N27">
-        <v>374400</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>60</v>
@@ -1781,7 +1526,7 @@
         <v>79</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G28">
         <v>4</v>
@@ -1793,27 +1538,18 @@
         <v>560</v>
       </c>
       <c r="J28">
-        <v>480</v>
+        <v>6720</v>
       </c>
       <c r="K28">
-        <v>6720</v>
-      </c>
-      <c r="L28">
-        <v>5760</v>
-      </c>
-      <c r="M28">
         <v>530880</v>
       </c>
-      <c r="N28">
-        <v>455040</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>60</v>
@@ -1825,7 +1561,7 @@
         <v>107</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G29">
         <v>4</v>
@@ -1837,27 +1573,18 @@
         <v>560</v>
       </c>
       <c r="J29">
-        <v>480</v>
+        <v>6720</v>
       </c>
       <c r="K29">
-        <v>6720</v>
-      </c>
-      <c r="L29">
-        <v>5760</v>
-      </c>
-      <c r="M29">
         <v>719040</v>
       </c>
-      <c r="N29">
-        <v>616320</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>60</v>
@@ -1869,7 +1596,7 @@
         <v>135</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>4</v>
@@ -1881,19 +1608,10 @@
         <v>560</v>
       </c>
       <c r="J30">
-        <v>480</v>
+        <v>6720</v>
       </c>
       <c r="K30">
-        <v>6720</v>
-      </c>
-      <c r="L30">
-        <v>5760</v>
-      </c>
-      <c r="M30">
         <v>907200</v>
-      </c>
-      <c r="N30">
-        <v>777600</v>
       </c>
     </row>
   </sheetData>
